--- a/Python/스타트코딩/업무자동화/03.엑셀자동화/total.xlsx
+++ b/Python/스타트코딩/업무자동화/03.엑셀자동화/total.xlsx
@@ -8,6 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="마우스 패드" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="기계식 키보드" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="게이밍 마우스" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="32인치 모니터" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="마우스 패드1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="기계식 키보드1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="게이밍 마우스1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="32인치 모니터1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -736,4 +744,392 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>마우스 패드</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>마우스 패드</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>마우스 패드</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1" t="n">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1" t="n">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>32인치 모니터</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>35000</v>
+      </c>
+      <c r="C1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1" t="n">
+        <v>140000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Python/스타트코딩/업무자동화/03.엑셀자동화/total.xlsx
+++ b/Python/스타트코딩/업무자동화/03.엑셀자동화/total.xlsx
@@ -1,10 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6690" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,13 +24,48 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="8">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <b val="1"/>
+      <color rgb="ff0077ff"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <b val="1"/>
+      <color rgb="000077ff"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,25 +76,173 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="ff000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="ff000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="ff000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="ff000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="ff000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="12">
+    <dxf/>
+    <dxf/>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="ffaebfea"/>
+          <bgColor rgb="ffaebfea"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="ff94a5df"/>
+          <bgColor rgb="ff94a5df"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color rgb="ff6182d6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="ff6182d6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="ff6182d6"/>
+          <bgColor rgb="ff6182d6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <tableStyleElement type="wholeTable" size="1" dxfId="0"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="5"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="4"/>
+      <tableStyleElement type="firstColumn" size="1" dxfId="3"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
+    </tableStyle>
+    <tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -133,41 +315,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -410,726 +592,737 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H6" activeCellId="0" sqref="H6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
+  <cols>
+    <col width="20" customWidth="1" style="5" min="1" max="1"/>
+    <col width="20" customWidth="1" style="5" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="30" customHeight="1" s="5">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>순번</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>제품명</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>가격</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>수량</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마우스 패드</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="1" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>480000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" ht="17.9" customHeight="1" s="5">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>게이밍 마우스</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>160000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>게이밍 마우스</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="1" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>게이밍 마우스</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="1" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>게이밍 마우스</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="1" t="n">
         <v>160000</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="1" t="n">
         <v>480000</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>32인치 모니터</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="1" t="n">
         <v>35000</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="1" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>마우스 패드</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="1" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>마우스 패드</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="1" t="n">
         <v>60000</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>게이밍 마우스</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="1" t="n">
         <v>1600000</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="1" t="n">
         <v>1600000</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="1" t="n">
         <v>600000</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="1" t="n">
         <v>600000</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="1" t="n">
         <v>600000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>마우스 패드</t>
         </is>
       </c>
-      <c r="B1" t="n">
+      <c r="B1" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1" s="1" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>마우스 패드</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>마우스 패드</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>60000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="B1" t="n">
+      <c r="B1" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1" s="1" t="n">
         <v>480000</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1" t="n">
         <v>480000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>1600000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>600000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="1" t="n">
         <v>600000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>기계식 키보드</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="1" t="n">
         <v>600000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>게이밍 마우스</t>
         </is>
       </c>
-      <c r="B1" t="n">
+      <c r="B1" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1" s="1" t="n">
         <v>160000</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>게이밍 마우스</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>게이밍 마우스</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>게이밍 마우스</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>160000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>게이밍 마우스</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="1" t="n">
         <v>1600000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>32인치 모니터</t>
         </is>
       </c>
-      <c r="B1" t="n">
+      <c r="B1" s="1" t="n">
         <v>35000</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1" s="1" t="n">
         <v>140000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>